--- a/axo-on-preenfm2-pinout.xlsx
+++ b/axo-on-preenfm2-pinout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
   <si>
     <t xml:space="preserve">Preen405 PIN</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">AXOLOTI FUNCTION</t>
   </si>
   <si>
+    <t xml:space="preserve">NOW HACKED IN</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOOT0</t>
   </si>
   <si>
@@ -121,7 +124,7 @@
     <t xml:space="preserve">LCD_DB6</t>
   </si>
   <si>
-    <t xml:space="preserve">now I2S3_WS for CS4354</t>
+    <t xml:space="preserve">I2S3_WS</t>
   </si>
   <si>
     <t xml:space="preserve">PA5</t>
@@ -145,9 +148,6 @@
     <t xml:space="preserve">SPI_MQH</t>
   </si>
   <si>
-    <t xml:space="preserve">To 74HC165 IC1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PA8</t>
   </si>
   <si>
@@ -163,10 +163,7 @@
     <t xml:space="preserve">assignable (Header X3)</t>
   </si>
   <si>
-    <t xml:space="preserve">UART3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">works</t>
+    <t xml:space="preserve">UART3: DIN MIDI</t>
   </si>
   <si>
     <t xml:space="preserve">PB11</t>
@@ -187,6 +184,9 @@
     <t xml:space="preserve">USB_HOST_DM</t>
   </si>
   <si>
+    <t xml:space="preserve">how to use?</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB15</t>
   </si>
   <si>
@@ -205,7 +205,10 @@
     <t xml:space="preserve">assignable (SPI3_SCK)</t>
   </si>
   <si>
-    <t xml:space="preserve">MCP4922 SCK</t>
+    <t xml:space="preserve">I2S3_CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was: MCP4922 SCK</t>
   </si>
   <si>
     <t xml:space="preserve">PB4</t>
@@ -217,7 +220,7 @@
     <t xml:space="preserve">assignable (SPI3_MISO)</t>
   </si>
   <si>
-    <t xml:space="preserve">MCP4922-1 CS</t>
+    <t xml:space="preserve">Was: MCP4922-1 CS</t>
   </si>
   <si>
     <t xml:space="preserve">PB5</t>
@@ -229,7 +232,10 @@
     <t xml:space="preserve">Switch 1 (PB5/BOOT0)</t>
   </si>
   <si>
-    <t xml:space="preserve">MCP4922 MO</t>
+    <t xml:space="preserve">I2S3_SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was: MCP4922 MO</t>
   </si>
   <si>
     <t xml:space="preserve">PB6</t>
@@ -259,7 +265,7 @@
     <t xml:space="preserve">assignable (I2C1_SDA)</t>
   </si>
   <si>
-    <t xml:space="preserve">MCP4922-2 CS</t>
+    <t xml:space="preserve">Was: MCP4922-2 CS</t>
   </si>
   <si>
     <t xml:space="preserve">PC0</t>
@@ -277,18 +283,15 @@
     <t xml:space="preserve">PC10</t>
   </si>
   <si>
-    <t xml:space="preserve">nc (SDIO_D2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SDIO_D2</t>
   </si>
   <si>
+    <t xml:space="preserve">SD card</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC11</t>
   </si>
   <si>
-    <t xml:space="preserve">nc (SDIO_D3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SDIO_D3</t>
   </si>
   <si>
@@ -301,7 +304,7 @@
     <t xml:space="preserve">SDIO_CK</t>
   </si>
   <si>
-    <t xml:space="preserve">MCP4922 LDAC</t>
+    <t xml:space="preserve">Was: MCP4922 LDAC</t>
   </si>
   <si>
     <t xml:space="preserve">PC13</t>
@@ -331,22 +334,58 @@
     <t xml:space="preserve">PC7</t>
   </si>
   <si>
+    <t xml:space="preserve">I2S3_MCK</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC8</t>
   </si>
   <si>
-    <t xml:space="preserve">nc (SDIO_D0)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SDIO_D0</t>
   </si>
   <si>
     <t xml:space="preserve">PD2</t>
   </si>
   <si>
-    <t xml:space="preserve">nc (SDIO_CMD)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SDIO_CMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDIO_D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD CARD</t>
   </si>
 </sst>
 </file>
@@ -379,32 +418,34 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF808080"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +454,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFE0EFD4"/>
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFC2E0AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2E0AE"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -425,8 +472,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC2E0AE"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FF87D1D1"/>
+        <bgColor rgb="FFC2E0AE"/>
       </patternFill>
     </fill>
     <fill>
@@ -439,6 +486,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFBCC"/>
         <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1C1C1C"/>
+        <bgColor rgb="FF333300"/>
       </patternFill>
     </fill>
   </fills>
@@ -483,81 +542,129 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -576,7 +683,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -585,7 +692,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC2E0AE"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -594,7 +701,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -607,7 +714,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFE0EFD4"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF87D1D1"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -626,7 +733,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF1C1C1C"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -637,638 +744,890 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="24.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="7" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="7" style="1" width="3.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="16" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="3" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D11" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>39</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>30</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>32</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>33</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
-        <v>34</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="0"/>
+      <c r="F21" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="0"/>
+      <c r="F22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="0"/>
+      <c r="F24" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
+      <c r="E25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
+      <c r="B26" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+      <c r="B27" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="B28" s="20" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+      <c r="C28" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="C29" s="22" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+      <c r="D29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="0"/>
+      <c r="F29" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+      <c r="B30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
+      <c r="B31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="B32" s="23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="n">
+      <c r="C32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="E34" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="G34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="14" t="s">
+      <c r="B35" s="17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
+      <c r="C35" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
+      <c r="C36" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="n">
+      <c r="C37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
+      <c r="C38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+      <c r="B39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="14" t="s">
+      <c r="B40" s="23" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
+      <c r="C40" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="C41" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>108</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M45" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="O45" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L46" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="M46" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="N46" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="O46" s="29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="0"/>
+      <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="0"/>
+      <c r="L57" s="0"/>
+      <c r="M57" s="0"/>
+      <c r="N57" s="0"/>
+      <c r="O57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/axo-on-preenfm2-pinout.xlsx
+++ b/axo-on-preenfm2-pinout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="129">
   <si>
     <t xml:space="preserve">Preen405 PIN</t>
   </si>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">LCD_DB6</t>
   </si>
   <si>
-    <t xml:space="preserve">I2S3_WS</t>
+    <t xml:space="preserve">now I2S3_WS</t>
   </si>
   <si>
     <t xml:space="preserve">PA5</t>
@@ -205,7 +205,7 @@
     <t xml:space="preserve">assignable (SPI3_SCK)</t>
   </si>
   <si>
-    <t xml:space="preserve">I2S3_CK</t>
+    <t xml:space="preserve">now I2S3_CK</t>
   </si>
   <si>
     <t xml:space="preserve">Was: MCP4922 SCK</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">assignable (SPI3_MISO)</t>
   </si>
   <si>
-    <t xml:space="preserve">Was: MCP4922-1 CS</t>
+    <t xml:space="preserve">Was: MCP4922 CS1</t>
   </si>
   <si>
     <t xml:space="preserve">PB5</t>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">Switch 1 (PB5/BOOT0)</t>
   </si>
   <si>
-    <t xml:space="preserve">I2S3_SD</t>
+    <t xml:space="preserve">now I2S3_SD</t>
   </si>
   <si>
     <t xml:space="preserve">Was: MCP4922 MO</t>
@@ -265,7 +265,7 @@
     <t xml:space="preserve">assignable (I2C1_SDA)</t>
   </si>
   <si>
-    <t xml:space="preserve">Was: MCP4922-2 CS</t>
+    <t xml:space="preserve">Was: MCP4922 CS2</t>
   </si>
   <si>
     <t xml:space="preserve">PC0</t>
@@ -274,19 +274,25 @@
     <t xml:space="preserve">assignable(AIN1)</t>
   </si>
   <si>
+    <t xml:space="preserve">gate in</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC1</t>
   </si>
   <si>
     <t xml:space="preserve">assignable(AIN2)</t>
   </si>
   <si>
+    <t xml:space="preserve">CV in</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC10</t>
   </si>
   <si>
     <t xml:space="preserve">SDIO_D2</t>
   </si>
   <si>
-    <t xml:space="preserve">SD card</t>
+    <t xml:space="preserve">SD card D2</t>
   </si>
   <si>
     <t xml:space="preserve">PC11</t>
@@ -295,6 +301,9 @@
     <t xml:space="preserve">SDIO_D3</t>
   </si>
   <si>
+    <t xml:space="preserve">SD card D3</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC12</t>
   </si>
   <si>
@@ -304,6 +313,9 @@
     <t xml:space="preserve">SDIO_CK</t>
   </si>
   <si>
+    <t xml:space="preserve">SD card CK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Was: MCP4922 LDAC</t>
   </si>
   <si>
@@ -334,7 +346,7 @@
     <t xml:space="preserve">PC7</t>
   </si>
   <si>
-    <t xml:space="preserve">I2S3_MCK</t>
+    <t xml:space="preserve">now I2S3_MCK</t>
   </si>
   <si>
     <t xml:space="preserve">PC8</t>
@@ -343,12 +355,18 @@
     <t xml:space="preserve">SDIO_D0</t>
   </si>
   <si>
+    <t xml:space="preserve">SD card D0</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD2</t>
   </si>
   <si>
     <t xml:space="preserve">SDIO_CMD</t>
   </si>
   <si>
+    <t xml:space="preserve">SD card CMD</t>
+  </si>
+  <si>
     <t xml:space="preserve">*41</t>
   </si>
   <si>
@@ -359,6 +377,9 @@
   </si>
   <si>
     <t xml:space="preserve">SDIO_D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD card D1</t>
   </si>
   <si>
     <t xml:space="preserve">D2</t>
@@ -445,7 +466,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,12 +489,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE0EFD4"/>
         <bgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF87D1D1"/>
-        <bgColor rgb="FFC2E0AE"/>
       </patternFill>
     </fill>
     <fill>
@@ -542,7 +557,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -595,10 +610,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -611,59 +622,47 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -714,7 +713,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFE0EFD4"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF87D1D1"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -746,8 +745,8 @@
   </sheetPr>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -947,7 +946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>30</v>
       </c>
@@ -992,7 +991,7 @@
       <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1009,7 +1008,7 @@
       <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1026,7 +1025,7 @@
       <c r="D18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1043,7 +1042,7 @@
       <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G19" s="3"/>
@@ -1058,10 +1057,10 @@
       <c r="C20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1101,14 +1100,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1117,7 +1116,7 @@
       <c r="E23" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G23" s="0"/>
@@ -1129,25 +1128,25 @@
       <c r="B24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="0"/>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -1156,55 +1155,55 @@
       <c r="E25" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="n">
+      <c r="A26" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="n">
+      <c r="A27" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="16"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="n">
+      <c r="A28" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -1213,143 +1212,149 @@
       <c r="B29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="0"/>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="16"/>
+      <c r="E30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="16"/>
+      <c r="E31" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="n">
+      <c r="A32" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="n">
+      <c r="A33" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="15" t="s">
+      <c r="B33" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="G34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="n">
+      <c r="A35" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="16"/>
+      <c r="D35" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
         <v>24</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="16"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
         <v>25</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>15</v>
@@ -1360,16 +1365,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>102</v>
+      <c r="E38" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,52 +1382,52 @@
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="n">
+      <c r="A40" s="22" t="n">
         <v>40</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="15" t="s">
+      <c r="B40" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>88</v>
+        <v>110</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="F40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23" t="n">
+      <c r="A41" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="15" t="s">
+      <c r="B41" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>88</v>
+        <v>113</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="F41" s="0"/>
     </row>
@@ -1430,189 +1435,189 @@
       <c r="F42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>88</v>
+      <c r="A43" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="F43" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G45" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="J45" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="K45" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="L45" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="M45" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="N45" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="O45" s="28" t="s">
+      <c r="G45" s="24" t="s">
         <v>120</v>
       </c>
+      <c r="H45" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L45" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="N45" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O45" s="24" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="29" t="n">
+      <c r="H46" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="I46" s="29" t="n">
+      <c r="I46" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="J46" s="29" t="n">
+      <c r="J46" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="K46" s="29" t="n">
+      <c r="K46" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="L46" s="29" t="n">
+      <c r="L46" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="M46" s="29" t="n">
+      <c r="M46" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="N46" s="29" t="n">
+      <c r="N46" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="O46" s="29" t="n">
+      <c r="O46" s="25" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="29" t="n">
+      <c r="G47" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G57" s="0"/>
@@ -1627,7 +1632,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J58" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
